--- a/Welche Diagnosen wurden zuerst gestellt in Q1, R2.xlsx
+++ b/Welche Diagnosen wurden zuerst gestellt in Q1, R2.xlsx
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.01097604154372713</v>
+        <v>0.01078134463961236</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.0001180219520830875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.002006373185412487</v>
+        <v>0.002059357964869776</v>
       </c>
     </row>
     <row r="6">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.002360439041661749</v>
+        <v>0.002301635372501514</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.05145757110822613</v>
+        <v>0.054633555420957</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.003304614658326449</v>
+        <v>0.003513022410660206</v>
       </c>
     </row>
     <row r="17">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.006137141508320548</v>
+        <v>0.006299212598425197</v>
       </c>
     </row>
     <row r="23">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.0001180219520830875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.001062197568747787</v>
+        <v>0.0008479709267110841</v>
       </c>
     </row>
     <row r="26">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.0005901097604154372</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.0007081317124985248</v>
+        <v>0.000726832222895215</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.0001180219520830875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="34">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.0004720878083323498</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="36">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.001062197568747787</v>
+        <v>0.0009691096305269534</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.001298241472913962</v>
+        <v>0.001332525741974561</v>
       </c>
     </row>
     <row r="42">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.0004720878083323498</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="45">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.0004720878083323498</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="46">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.0004720878083323498</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="47">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.006255163460403635</v>
+        <v>0.005693519079345851</v>
       </c>
     </row>
     <row r="48">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.007671426885400684</v>
+        <v>0.006056935190793459</v>
       </c>
     </row>
     <row r="49">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.0002360439041661749</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="51">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="52">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.0004720878083323498</v>
+        <v>0.0003634161114476075</v>
       </c>
     </row>
     <row r="53">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.001888351233329399</v>
+        <v>0.001574803149606299</v>
       </c>
     </row>
     <row r="54">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.007789448837483772</v>
+        <v>0.00726832222895215</v>
       </c>
     </row>
     <row r="55">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.0008261536645816122</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="56">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.002832526849994099</v>
+        <v>0.002301635372501514</v>
       </c>
     </row>
     <row r="57">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.004484834179157324</v>
+        <v>0.004239854633555421</v>
       </c>
     </row>
     <row r="59">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.007553404933317597</v>
+        <v>0.006904906117504542</v>
       </c>
     </row>
     <row r="60">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.0007081317124985248</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="61">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="62">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="63">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>0.0003540658562492624</v>
+        <v>0.0003634161114476075</v>
       </c>
     </row>
     <row r="69">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.0005901097604154372</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="71">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.004838900035406586</v>
+        <v>0.004845548152634767</v>
       </c>
     </row>
     <row r="72">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.002596482945827924</v>
+        <v>0.002665051483949122</v>
       </c>
     </row>
     <row r="73">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.001062197568747787</v>
+        <v>0.001090248334342823</v>
       </c>
     </row>
     <row r="74">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="75">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>0.0003540658562492624</v>
+        <v>0.0003634161114476075</v>
       </c>
     </row>
     <row r="76">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="77">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.0002360439041661749</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="78">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.001652307329163224</v>
+        <v>0.001817080557238038</v>
       </c>
     </row>
     <row r="79">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="81">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="82">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="86">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>0.0009441756166646997</v>
+        <v>0.000726832222895215</v>
       </c>
     </row>
     <row r="87">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.003304614658326449</v>
+        <v>0.003513022410660206</v>
       </c>
     </row>
     <row r="89">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.005901097604154372</v>
+        <v>0.006056935190793459</v>
       </c>
     </row>
     <row r="90">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.0007081317124985248</v>
+        <v>0.000726832222895215</v>
       </c>
     </row>
     <row r="91">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.003304614658326449</v>
+        <v>0.003149606299212598</v>
       </c>
     </row>
     <row r="92">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="94">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.01274637082497345</v>
+        <v>0.01102362204724409</v>
       </c>
     </row>
     <row r="95">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.002714504897911012</v>
+        <v>0.002786190187764991</v>
       </c>
     </row>
     <row r="96">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.0007081317124985248</v>
+        <v>0.000726832222895215</v>
       </c>
     </row>
     <row r="97">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.005429009795822023</v>
+        <v>0.00436099333737129</v>
       </c>
     </row>
     <row r="98">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.0008261536645816122</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="99">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.0007081317124985248</v>
+        <v>0.000726832222895215</v>
       </c>
     </row>
     <row r="100">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.002360439041661749</v>
+        <v>0.001817080557238038</v>
       </c>
     </row>
     <row r="101">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.001062197568747787</v>
+        <v>0.001090248334342823</v>
       </c>
     </row>
     <row r="102">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.3504071757346867</v>
+        <v>0.3585705632949727</v>
       </c>
     </row>
     <row r="103">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.05216570282072466</v>
+        <v>0.0530587522713507</v>
       </c>
     </row>
     <row r="104">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.06975097368110468</v>
+        <v>0.07135069654754694</v>
       </c>
     </row>
     <row r="105">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.008261536645816121</v>
+        <v>0.008358570563294972</v>
       </c>
     </row>
     <row r="106">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.040481529564499</v>
+        <v>0.04082374318594791</v>
       </c>
     </row>
     <row r="107">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="108">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.00141626342499705</v>
+        <v>0.001332525741974561</v>
       </c>
     </row>
     <row r="109">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="110">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>0.0004720878083323498</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="111">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.003540658562492624</v>
+        <v>0.003634161114476075</v>
       </c>
     </row>
     <row r="112">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.001180219520830874</v>
+        <v>0.001211387038158692</v>
       </c>
     </row>
     <row r="113">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.00413076832290806</v>
+        <v>0.003997577225923683</v>
       </c>
     </row>
     <row r="114">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.0004720878083323498</v>
+        <v>0.0003634161114476075</v>
       </c>
     </row>
     <row r="115">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.002832526849994099</v>
+        <v>0.00290732889158086</v>
       </c>
     </row>
     <row r="116">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.0005901097604154372</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="117">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.004012746370824973</v>
+        <v>0.003391883706844337</v>
       </c>
     </row>
     <row r="118">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.00141626342499705</v>
+        <v>0.00145366444579043</v>
       </c>
     </row>
     <row r="120">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.001298241472913962</v>
+        <v>0.001211387038158692</v>
       </c>
     </row>
     <row r="121">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.0005901097604154372</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="122">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.001062197568747787</v>
+        <v>0.0009691096305269534</v>
       </c>
     </row>
     <row r="123">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="124">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.003068570754160274</v>
+        <v>0.003149606299212598</v>
       </c>
     </row>
     <row r="125">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="126">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.0009441756166646997</v>
+        <v>0.0008479709267110841</v>
       </c>
     </row>
     <row r="127">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.0005901097604154372</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="128">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.0009441756166646997</v>
+        <v>0.001090248334342823</v>
       </c>
     </row>
     <row r="129">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.0004720878083323498</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="130">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>0.0001180219520830875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.002714504897911012</v>
+        <v>0.002180496668685645</v>
       </c>
     </row>
     <row r="132">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>0.003422636610409536</v>
+        <v>0.003149606299212598</v>
       </c>
     </row>
     <row r="133">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.003186592706243361</v>
+        <v>0.003149606299212598</v>
       </c>
     </row>
     <row r="134">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.0007081317124985248</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="135">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.001298241472913962</v>
+        <v>0.001211387038158692</v>
       </c>
     </row>
     <row r="136">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.002950548802077186</v>
+        <v>0.002786190187764991</v>
       </c>
     </row>
     <row r="137">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.01793933671662929</v>
+        <v>0.01744397334948516</v>
       </c>
     </row>
     <row r="138">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.002124395137495574</v>
+        <v>0.001938219261053907</v>
       </c>
     </row>
     <row r="139">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.0007081317124985248</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="140">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.005074943939572761</v>
+        <v>0.004966686856450636</v>
       </c>
     </row>
     <row r="141">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.00141626342499705</v>
+        <v>0.0009691096305269534</v>
       </c>
     </row>
     <row r="142">
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="143">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="144">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.001770329281246312</v>
+        <v>0.001695941853422168</v>
       </c>
     </row>
     <row r="145">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="146">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="147">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>0.002714504897911012</v>
+        <v>0.002301635372501514</v>
       </c>
     </row>
     <row r="148">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="149">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="150">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>0.007081317124985247</v>
+        <v>0.006299212598425197</v>
       </c>
     </row>
     <row r="151">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>0.0009441756166646997</v>
+        <v>0.000726832222895215</v>
       </c>
     </row>
     <row r="152">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="154">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.001180219520830874</v>
+        <v>0.001211387038158692</v>
       </c>
     </row>
     <row r="155">
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="158">
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="178">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="179">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>0.0003540658562492624</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="183">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="184">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>0.0003540658562492624</v>
+        <v>0.0003634161114476075</v>
       </c>
     </row>
     <row r="185">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>0.049923285731146</v>
+        <v>0.05087825560266505</v>
       </c>
     </row>
     <row r="187">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.00837955859789921</v>
+        <v>0.008237431859479104</v>
       </c>
     </row>
     <row r="188">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.001652307329163224</v>
+        <v>0.001695941853422168</v>
       </c>
     </row>
     <row r="189">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.0007081317124985248</v>
+        <v>0.000726832222895215</v>
       </c>
     </row>
     <row r="190">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>0.001180219520830874</v>
+        <v>0.001090248334342823</v>
       </c>
     </row>
     <row r="191">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.002478460993744836</v>
+        <v>0.002301635372501514</v>
       </c>
     </row>
     <row r="192">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>0.001534285377080137</v>
+        <v>0.001211387038158692</v>
       </c>
     </row>
     <row r="193">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.03469845391242771</v>
+        <v>0.03658388855239249</v>
       </c>
     </row>
     <row r="194">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>0.001180219520830874</v>
+        <v>0.001090248334342823</v>
       </c>
     </row>
     <row r="195">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="196">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>0.0001180219520830875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>0.006373185412486723</v>
+        <v>0.006420351302241066</v>
       </c>
     </row>
     <row r="198">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>0.0001180219520830875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="201">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.002478460993744836</v>
+        <v>0.002422774076317383</v>
       </c>
     </row>
     <row r="202">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="203">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>0.001180219520830874</v>
+        <v>0.0008479709267110841</v>
       </c>
     </row>
     <row r="204">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="205">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>0.0008261536645816122</v>
+        <v>0.0008479709267110841</v>
       </c>
     </row>
     <row r="206">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="207">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="208">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="209">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.001062197568747787</v>
+        <v>0.0008479709267110841</v>
       </c>
     </row>
     <row r="211">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>0.0001180219520830875</v>
+        <v>0.0001211387038158692</v>
       </c>
     </row>
     <row r="212">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="213">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="215">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>0.0005901097604154372</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="217">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.0007081317124985248</v>
+        <v>0.0006056935190793458</v>
       </c>
     </row>
     <row r="219">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>0.003304614658326449</v>
+        <v>0.003270745003028467</v>
       </c>
     </row>
     <row r="221">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>0.0002360439041661749</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="229">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0.02195208308745427</v>
+        <v>0.02144155057540884</v>
       </c>
     </row>
     <row r="230">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.00837955859789921</v>
+        <v>0.006662628709872804</v>
       </c>
     </row>
     <row r="231">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>0.0004720878083323498</v>
+        <v>0.0002422774076317383</v>
       </c>
     </row>
     <row r="232">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.0005901097604154372</v>
+        <v>0.0004845548152634767</v>
       </c>
     </row>
     <row r="233">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>0.005192965891655848</v>
+        <v>0.005087825560266505</v>
       </c>
     </row>
     <row r="235">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>0.003894724418741886</v>
+        <v>0.003513022410660206</v>
       </c>
     </row>
     <row r="236">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>0.01628702938746607</v>
+        <v>0.01695941853422168</v>
       </c>
     </row>
     <row r="237">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>0.03517054172076006</v>
+        <v>0.03597819503331314</v>
       </c>
     </row>
   </sheetData>
